--- a/_files/requirements/master_data/master-reg_center_machine_device.xlsx
+++ b/_files/requirements/master_data/master-reg_center_machine_device.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{314B7798-A181-433B-8A0F-035429963D07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E51494B-2539-4507-AC2D-254FBF8521A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,8 +536,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362:C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9090,13 +9091,13 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>10008</v>
-      </c>
-      <c r="B357">
+      <c r="A357" s="1">
+        <v>33333</v>
+      </c>
+      <c r="B357" s="1">
         <v>10072</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>3000376</v>
       </c>
       <c r="D357" t="s">
@@ -9113,13 +9114,13 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>10008</v>
-      </c>
-      <c r="B358">
+      <c r="A358" s="1">
+        <v>33333</v>
+      </c>
+      <c r="B358" s="1">
         <v>10072</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>3000377</v>
       </c>
       <c r="D358" t="s">
@@ -9136,13 +9137,13 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>10008</v>
-      </c>
-      <c r="B359">
+      <c r="A359" s="1">
+        <v>33333</v>
+      </c>
+      <c r="B359" s="1">
         <v>10072</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>3000378</v>
       </c>
       <c r="D359" t="s">
@@ -9159,13 +9160,13 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>10008</v>
-      </c>
-      <c r="B360">
+      <c r="A360" s="1">
+        <v>33333</v>
+      </c>
+      <c r="B360" s="1">
         <v>10072</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>3000379</v>
       </c>
       <c r="D360" t="s">
@@ -9182,13 +9183,13 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A361">
-        <v>10008</v>
-      </c>
-      <c r="B361">
+      <c r="A361" s="1">
+        <v>33333</v>
+      </c>
+      <c r="B361" s="1">
         <v>10072</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>3000380</v>
       </c>
       <c r="D361" t="s">
@@ -9206,7 +9207,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B362">
         <v>10073</v>
@@ -9229,7 +9230,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B363">
         <v>10073</v>
@@ -9252,7 +9253,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B364">
         <v>10073</v>
@@ -9275,7 +9276,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B365">
         <v>10073</v>
@@ -9298,7 +9299,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B366">
         <v>10073</v>
@@ -9321,7 +9322,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B367">
         <v>10074</v>
@@ -9344,7 +9345,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B368">
         <v>10074</v>
@@ -9367,7 +9368,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B369">
         <v>10074</v>
@@ -9390,7 +9391,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B370">
         <v>10074</v>
@@ -9413,7 +9414,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B371">
         <v>10074</v>
@@ -9436,7 +9437,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B372">
         <v>10075</v>
@@ -9459,7 +9460,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B373">
         <v>10075</v>
@@ -9482,7 +9483,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B374">
         <v>10075</v>
@@ -9505,7 +9506,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B375">
         <v>10075</v>
@@ -9528,7 +9529,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B376">
         <v>10075</v>
@@ -9551,7 +9552,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B377">
         <v>10076</v>
@@ -9574,7 +9575,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B378">
         <v>10076</v>
@@ -9597,7 +9598,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B379">
         <v>10076</v>
@@ -9620,7 +9621,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B380">
         <v>10076</v>
@@ -9643,7 +9644,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B381">
         <v>10076</v>
@@ -9666,7 +9667,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B382">
         <v>10077</v>
@@ -9689,7 +9690,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B383">
         <v>10077</v>
@@ -9712,7 +9713,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B384">
         <v>10077</v>
@@ -9735,7 +9736,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B385">
         <v>10077</v>
@@ -9758,7 +9759,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B386">
         <v>10077</v>
@@ -9781,7 +9782,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B387">
         <v>10078</v>
@@ -9804,7 +9805,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B388">
         <v>10078</v>
@@ -9827,7 +9828,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B389">
         <v>10078</v>
@@ -9850,7 +9851,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B390">
         <v>10078</v>
@@ -9873,7 +9874,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B391">
         <v>10078</v>
@@ -9896,7 +9897,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B392">
         <v>10079</v>
@@ -9919,7 +9920,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B393">
         <v>10079</v>
@@ -9942,7 +9943,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B394">
         <v>10079</v>
@@ -9965,7 +9966,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B395">
         <v>10079</v>
@@ -9988,7 +9989,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B396">
         <v>10079</v>
@@ -10011,7 +10012,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B397">
         <v>10080</v>
@@ -10034,7 +10035,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B398">
         <v>10080</v>
@@ -10057,7 +10058,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B399">
         <v>10080</v>
@@ -10080,7 +10081,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B400">
         <v>10080</v>
@@ -10103,7 +10104,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B401">
         <v>10080</v>
@@ -10126,7 +10127,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B402">
         <v>10081</v>
@@ -10149,7 +10150,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B403">
         <v>10081</v>
@@ -10172,7 +10173,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B404">
         <v>10081</v>
@@ -10195,7 +10196,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B405">
         <v>10081</v>
@@ -10218,7 +10219,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B406">
         <v>10081</v>
@@ -10241,7 +10242,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B407">
         <v>10082</v>
@@ -10264,7 +10265,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B408">
         <v>10082</v>
@@ -10287,7 +10288,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B409">
         <v>10082</v>
@@ -10310,7 +10311,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B410">
         <v>10082</v>
@@ -10333,7 +10334,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B411">
         <v>10082</v>
@@ -10356,7 +10357,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B412">
         <v>10083</v>
@@ -10379,7 +10380,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B413">
         <v>10083</v>
@@ -10402,7 +10403,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B414">
         <v>10083</v>
@@ -10425,7 +10426,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B415">
         <v>10083</v>
@@ -10448,7 +10449,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B416">
         <v>10083</v>
